--- a/SolvencyII.UI/SolvencyII.ExcelImportExportLib/ExcelTemplates/BusinessTemplates/qeb_quarterly_ecb_reporting_third_country_branches.xlsx
+++ b/SolvencyII.UI/SolvencyII.ExcelImportExportLib/ExcelTemplates/BusinessTemplates/qeb_quarterly_ecb_reporting_third_country_branches.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremi Kiraga\Desktop\business\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremi Kiraga\Desktop\ExcelGenCmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="7245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -128,7 +128,7 @@
     <definedName name="SE.06.02.18.02.TD" localSheetId="30">SE.06.02.18.02!$B$6:$Y$6</definedName>
     <definedName name="Version" localSheetId="0">Info!$B$2:$C$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4120" uniqueCount="2321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4120" uniqueCount="2323">
   <si>
     <t>S.No</t>
   </si>
@@ -329,7 +329,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>Ver:2016.02.29</t>
+    <t>Ver:2016.04.18</t>
   </si>
   <si>
     <t>Back to TOC</t>
@@ -6407,7 +6407,13 @@
     <t>Name of a branch</t>
   </si>
   <si>
+    <t>R0000C0030</t>
+  </si>
+  <si>
     <t>Country of a branch</t>
+  </si>
+  <si>
+    <t>R0000C0040</t>
   </si>
   <si>
     <t>Yes    {s2c_AO:x1}</t>
@@ -7108,7 +7114,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -7116,6 +7122,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7124,6 +7131,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7132,6 +7140,7 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7139,6 +7148,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -7646,9 +7656,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -7698,9 +7708,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -7903,9 +7913,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="50.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -7953,15 +7963,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="35" customWidth="1"/>
-    <col min="3" max="6" width="20.5703125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="15" customWidth="1"/>
-    <col min="8" max="11" width="20.5703125" style="24" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="15" customWidth="1"/>
-    <col min="13" max="14" width="20.5703125" style="24" customWidth="1"/>
-    <col min="15" max="17" width="20.5703125" style="15" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="35" customWidth="1"/>
+    <col min="3" max="6" width="20.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="15" customWidth="1"/>
+    <col min="8" max="11" width="20.7109375" style="24" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="15" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" style="24" customWidth="1"/>
+    <col min="15" max="17" width="20.7109375" style="15" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
@@ -8214,17 +8224,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="23" customWidth="1"/>
-    <col min="3" max="5" width="20.5703125" style="24" customWidth="1"/>
-    <col min="6" max="8" width="20.5703125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="15" customWidth="1"/>
-    <col min="11" max="13" width="20.5703125" style="16" customWidth="1"/>
-    <col min="14" max="15" width="20.5703125" style="14" customWidth="1"/>
-    <col min="16" max="18" width="20.5703125" style="16" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" style="27" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="23" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" style="24" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="16" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="15" customWidth="1"/>
+    <col min="11" max="13" width="20.7109375" style="16" customWidth="1"/>
+    <col min="14" max="15" width="20.7109375" style="14" customWidth="1"/>
+    <col min="16" max="18" width="20.7109375" style="16" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="27" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
@@ -8540,13 +8550,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="35" customWidth="1"/>
-    <col min="3" max="7" width="20.5703125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="15" customWidth="1"/>
-    <col min="9" max="10" width="20.5703125" style="24" customWidth="1"/>
-    <col min="11" max="13" width="20.5703125" style="15" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="35" customWidth="1"/>
+    <col min="3" max="7" width="20.7109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="15" customWidth="1"/>
+    <col min="9" max="10" width="20.7109375" style="24" customWidth="1"/>
+    <col min="11" max="13" width="20.7109375" style="15" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
@@ -8752,9 +8762,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="19" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="19" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
@@ -8815,7 +8825,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="36"/>
       <c r="D6" s="77"/>
@@ -9691,9 +9701,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="20" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="20" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
@@ -11599,9 +11609,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="8" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -12124,9 +12134,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -12292,9 +12302,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -12370,9 +12380,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -12738,9 +12748,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -12809,9 +12819,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="70.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -13212,9 +13222,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -13353,9 +13363,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -13507,9 +13517,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -13615,9 +13625,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="7" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -14171,9 +14181,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -14270,9 +14280,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="7" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -14467,9 +14477,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -14621,9 +14631,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -14818,9 +14828,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -15044,9 +15054,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -16547,9 +16557,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -16584,7 +16594,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>1647</v>
@@ -16593,7 +16603,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1649</v>
@@ -16602,7 +16612,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="42" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>1651</v>
@@ -16611,7 +16621,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="42" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1653</v>
@@ -16620,7 +16630,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="42" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>1655</v>
@@ -16629,7 +16639,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="42" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>1659</v>
@@ -16638,7 +16648,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="42" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>1661</v>
@@ -16647,7 +16657,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="42" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>1662</v>
@@ -16656,7 +16666,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="42" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>1664</v>
@@ -16665,7 +16675,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="42" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>1666</v>
@@ -16674,7 +16684,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="42" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>1668</v>
@@ -16683,7 +16693,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="42" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>1670</v>
@@ -16692,7 +16702,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="42" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>1672</v>
@@ -16701,7 +16711,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="42" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>1674</v>
@@ -16710,7 +16720,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="42" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>1678</v>
@@ -16719,7 +16729,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="42" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>1680</v>
@@ -16728,7 +16738,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="42" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>1682</v>
@@ -16737,7 +16747,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="42" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>1684</v>
@@ -16746,7 +16756,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="42" t="s">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>1686</v>
@@ -16755,7 +16765,7 @@
     </row>
     <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="46" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>1688</v>
@@ -16841,17 +16851,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="23" customWidth="1"/>
-    <col min="3" max="5" width="20.5703125" style="24" customWidth="1"/>
-    <col min="6" max="9" width="20.5703125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="24" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="25" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="15" customWidth="1"/>
-    <col min="14" max="16" width="20.5703125" style="16" customWidth="1"/>
-    <col min="17" max="18" width="20.5703125" style="15" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="23" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" style="24" customWidth="1"/>
+    <col min="6" max="9" width="20.7109375" style="15" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="15" customWidth="1"/>
+    <col min="14" max="16" width="20.7109375" style="16" customWidth="1"/>
+    <col min="17" max="18" width="20.7109375" style="15" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
@@ -16938,7 +16948,7 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="2:19" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>1587</v>
       </c>
@@ -17142,23 +17152,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="35" customWidth="1"/>
-    <col min="3" max="5" width="20.5703125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="15" customWidth="1"/>
-    <col min="7" max="8" width="20.5703125" style="24" customWidth="1"/>
-    <col min="9" max="10" width="20.5703125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="24" customWidth="1"/>
-    <col min="12" max="13" width="20.5703125" style="15" customWidth="1"/>
-    <col min="14" max="15" width="20.5703125" style="24" customWidth="1"/>
-    <col min="16" max="16" width="20.5703125" style="15" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" style="24" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" style="25" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" style="16" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" style="26" customWidth="1"/>
-    <col min="21" max="21" width="20.5703125" style="27" customWidth="1"/>
-    <col min="22" max="24" width="20.5703125" style="15" customWidth="1"/>
-    <col min="25" max="25" width="20.5703125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="35" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="15" customWidth="1"/>
+    <col min="7" max="8" width="20.7109375" style="24" customWidth="1"/>
+    <col min="9" max="10" width="20.7109375" style="15" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="24" customWidth="1"/>
+    <col min="12" max="13" width="20.7109375" style="15" customWidth="1"/>
+    <col min="14" max="15" width="20.7109375" style="24" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" style="15" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="24" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="25" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="16" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="26" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="27" customWidth="1"/>
+    <col min="22" max="24" width="20.7109375" style="15" customWidth="1"/>
+    <col min="25" max="25" width="20.7109375" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25" x14ac:dyDescent="0.25">
@@ -17506,11 +17516,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="23" customWidth="1"/>
-    <col min="3" max="4" width="20.5703125" style="15" customWidth="1"/>
-    <col min="5" max="6" width="20.5703125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="23" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" style="15" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -17632,7 +17642,7 @@
     <hyperlink ref="B1" location="'Table of contents'!A1" tooltip="Click to navigate Table of contents" display="Back to TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17751,46 +17761,46 @@
         <v>69</v>
       </c>
       <c r="ARW1" t="s">
-        <v>2090</v>
+        <v>2092</v>
       </c>
       <c r="ARX1" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="ARY1" t="s">
-        <v>2297</v>
+        <v>2299</v>
       </c>
       <c r="ARZ1" t="s">
         <v>323</v>
       </c>
       <c r="ASA1" t="s">
-        <v>2299</v>
+        <v>2301</v>
       </c>
       <c r="ASB1" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="ASC1" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="ASD1" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="ASE1" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="ASF1" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="ASG1" t="s">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="ASH1" t="s">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="ASI1" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="ASJ1" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="2" spans="1132:1180" x14ac:dyDescent="0.25">
@@ -17897,46 +17907,46 @@
         <v>70</v>
       </c>
       <c r="ARW2" t="s">
-        <v>2091</v>
+        <v>2093</v>
       </c>
       <c r="ARX2" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="ARY2" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="ARZ2" t="s">
         <v>324</v>
       </c>
       <c r="ASA2" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="ASB2" t="s">
-        <v>2302</v>
+        <v>2304</v>
       </c>
       <c r="ASC2" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c r="ASD2" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="ASE2" t="s">
-        <v>2309</v>
+        <v>2311</v>
       </c>
       <c r="ASF2" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="ASG2" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c r="ASH2" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="ASI2" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="ASJ2" t="s">
-        <v>2319</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="3" spans="1132:1180" x14ac:dyDescent="0.25">
@@ -18031,16 +18041,16 @@
         <v>71</v>
       </c>
       <c r="ARX3" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="ARZ3" t="s">
         <v>325</v>
       </c>
       <c r="ASB3" t="s">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="ASJ3" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="4" spans="1132:1180" x14ac:dyDescent="0.25">
@@ -18120,7 +18130,7 @@
         <v>72</v>
       </c>
       <c r="ARX4" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="ARZ4" t="s">
         <v>326</v>
@@ -18185,7 +18195,7 @@
         <v>73</v>
       </c>
       <c r="ARX5" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="ARZ5" t="s">
         <v>327</v>
@@ -18238,7 +18248,7 @@
         <v>74</v>
       </c>
       <c r="ARX6" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="ARZ6" t="s">
         <v>328</v>
@@ -18279,7 +18289,7 @@
         <v>75</v>
       </c>
       <c r="ARX7" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="ARZ7" t="s">
         <v>329</v>
@@ -18317,7 +18327,7 @@
         <v>76</v>
       </c>
       <c r="ARX8" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="ARZ8" t="s">
         <v>330</v>
@@ -18352,7 +18362,7 @@
         <v>77</v>
       </c>
       <c r="ARX9" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="ARZ9" t="s">
         <v>331</v>
@@ -18387,7 +18397,7 @@
         <v>78</v>
       </c>
       <c r="ARX10" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="ARZ10" t="s">
         <v>332</v>
@@ -18422,7 +18432,7 @@
         <v>79</v>
       </c>
       <c r="ARX11" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="ARZ11" t="s">
         <v>333</v>
@@ -18454,7 +18464,7 @@
         <v>80</v>
       </c>
       <c r="ARX12" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="ARZ12" t="s">
         <v>334</v>
@@ -18486,7 +18496,7 @@
         <v>81</v>
       </c>
       <c r="ARX13" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="ARZ13" t="s">
         <v>335</v>
@@ -18518,7 +18528,7 @@
         <v>82</v>
       </c>
       <c r="ARX14" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="ARZ14" t="s">
         <v>336</v>
@@ -18550,7 +18560,7 @@
         <v>83</v>
       </c>
       <c r="ARX15" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c r="ARZ15" t="s">
         <v>337</v>
@@ -18582,7 +18592,7 @@
         <v>84</v>
       </c>
       <c r="ARX16" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="ARZ16" t="s">
         <v>338</v>
@@ -18614,7 +18624,7 @@
         <v>85</v>
       </c>
       <c r="ARX17" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="ARZ17" t="s">
         <v>339</v>
@@ -18646,7 +18656,7 @@
         <v>86</v>
       </c>
       <c r="ARX18" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
       <c r="ARZ18" t="s">
         <v>340</v>
@@ -18675,7 +18685,7 @@
         <v>87</v>
       </c>
       <c r="ARX19" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="ARZ19" t="s">
         <v>341</v>
@@ -18704,7 +18714,7 @@
         <v>88</v>
       </c>
       <c r="ARX20" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
       <c r="ARZ20" t="s">
         <v>342</v>
@@ -18733,7 +18743,7 @@
         <v>89</v>
       </c>
       <c r="ARX21" t="s">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="ARZ21" t="s">
         <v>343</v>
@@ -18762,7 +18772,7 @@
         <v>90</v>
       </c>
       <c r="ARX22" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
       <c r="ARZ22" t="s">
         <v>344</v>
@@ -18791,7 +18801,7 @@
         <v>91</v>
       </c>
       <c r="ARX23" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="ARZ23" t="s">
         <v>345</v>
@@ -18820,7 +18830,7 @@
         <v>92</v>
       </c>
       <c r="ARX24" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c r="ARZ24" t="s">
         <v>346</v>
@@ -18849,7 +18859,7 @@
         <v>93</v>
       </c>
       <c r="ARX25" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="ARZ25" t="s">
         <v>347</v>
@@ -18878,7 +18888,7 @@
         <v>94</v>
       </c>
       <c r="ARX26" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="ARZ26" t="s">
         <v>348</v>
@@ -18907,7 +18917,7 @@
         <v>95</v>
       </c>
       <c r="ARX27" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="ARZ27" t="s">
         <v>349</v>
@@ -18936,7 +18946,7 @@
         <v>96</v>
       </c>
       <c r="ARX28" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="ARZ28" t="s">
         <v>350</v>
@@ -18965,7 +18975,7 @@
         <v>97</v>
       </c>
       <c r="ARX29" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="ARZ29" t="s">
         <v>351</v>
@@ -18994,7 +19004,7 @@
         <v>98</v>
       </c>
       <c r="ARX30" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="ARZ30" t="s">
         <v>352</v>
@@ -19023,7 +19033,7 @@
         <v>99</v>
       </c>
       <c r="ARX31" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="ARZ31" t="s">
         <v>353</v>
@@ -19052,7 +19062,7 @@
         <v>100</v>
       </c>
       <c r="ARX32" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="ARZ32" t="s">
         <v>354</v>
@@ -19081,7 +19091,7 @@
         <v>101</v>
       </c>
       <c r="ARX33" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="ARZ33" t="s">
         <v>355</v>
@@ -19110,7 +19120,7 @@
         <v>102</v>
       </c>
       <c r="ARX34" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="ARZ34" t="s">
         <v>356</v>
@@ -19139,7 +19149,7 @@
         <v>103</v>
       </c>
       <c r="ARX35" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c r="ARZ35" t="s">
         <v>357</v>
@@ -19168,7 +19178,7 @@
         <v>104</v>
       </c>
       <c r="ARX36" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="ARZ36" t="s">
         <v>358</v>
@@ -19197,7 +19207,7 @@
         <v>105</v>
       </c>
       <c r="ARX37" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="ARZ37" t="s">
         <v>359</v>
@@ -19226,7 +19236,7 @@
         <v>106</v>
       </c>
       <c r="ARX38" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c r="ARZ38" t="s">
         <v>360</v>
@@ -19255,7 +19265,7 @@
         <v>107</v>
       </c>
       <c r="ARX39" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="ARZ39" t="s">
         <v>361</v>
@@ -19284,7 +19294,7 @@
         <v>108</v>
       </c>
       <c r="ARX40" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="ARZ40" t="s">
         <v>362</v>
@@ -19313,7 +19323,7 @@
         <v>109</v>
       </c>
       <c r="ARX41" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="ARZ41" t="s">
         <v>363</v>
@@ -19342,7 +19352,7 @@
         <v>110</v>
       </c>
       <c r="ARX42" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c r="ARZ42" t="s">
         <v>364</v>
@@ -19371,7 +19381,7 @@
         <v>111</v>
       </c>
       <c r="ARX43" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="ARZ43" t="s">
         <v>365</v>
@@ -19400,7 +19410,7 @@
         <v>112</v>
       </c>
       <c r="ARX44" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="ARZ44" t="s">
         <v>366</v>
@@ -19429,7 +19439,7 @@
         <v>113</v>
       </c>
       <c r="ARX45" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="ARZ45" t="s">
         <v>367</v>
@@ -19458,7 +19468,7 @@
         <v>114</v>
       </c>
       <c r="ARX46" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="ARZ46" t="s">
         <v>368</v>
@@ -19487,7 +19497,7 @@
         <v>115</v>
       </c>
       <c r="ARX47" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="ARZ47" t="s">
         <v>369</v>
@@ -19516,7 +19526,7 @@
         <v>116</v>
       </c>
       <c r="ARX48" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="ARZ48" t="s">
         <v>370</v>
@@ -19545,7 +19555,7 @@
         <v>117</v>
       </c>
       <c r="ARX49" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="ARZ49" t="s">
         <v>371</v>
@@ -19574,7 +19584,7 @@
         <v>118</v>
       </c>
       <c r="ARX50" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="ARZ50" t="s">
         <v>372</v>
@@ -19603,7 +19613,7 @@
         <v>119</v>
       </c>
       <c r="ARX51" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c r="ARZ51" t="s">
         <v>373</v>
@@ -19632,7 +19642,7 @@
         <v>120</v>
       </c>
       <c r="ARX52" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="ARZ52" t="s">
         <v>374</v>
@@ -19661,7 +19671,7 @@
         <v>121</v>
       </c>
       <c r="ARX53" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="ARZ53" t="s">
         <v>375</v>
@@ -19690,7 +19700,7 @@
         <v>122</v>
       </c>
       <c r="ARX54" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="ARZ54" t="s">
         <v>376</v>
@@ -19719,7 +19729,7 @@
         <v>123</v>
       </c>
       <c r="ARX55" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="ARZ55" t="s">
         <v>377</v>
@@ -19748,7 +19758,7 @@
         <v>124</v>
       </c>
       <c r="ARX56" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="ARZ56" t="s">
         <v>378</v>
@@ -19777,7 +19787,7 @@
         <v>125</v>
       </c>
       <c r="ARX57" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="ARZ57" t="s">
         <v>379</v>
@@ -19806,7 +19816,7 @@
         <v>126</v>
       </c>
       <c r="ARX58" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="ARZ58" t="s">
         <v>380</v>
@@ -19835,7 +19845,7 @@
         <v>127</v>
       </c>
       <c r="ARX59" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c r="ARZ59" t="s">
         <v>381</v>
@@ -19864,7 +19874,7 @@
         <v>128</v>
       </c>
       <c r="ARX60" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="ARZ60" t="s">
         <v>382</v>
@@ -19893,7 +19903,7 @@
         <v>129</v>
       </c>
       <c r="ARX61" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="ARZ61" t="s">
         <v>383</v>
@@ -19922,7 +19932,7 @@
         <v>130</v>
       </c>
       <c r="ARX62" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="ARZ62" t="s">
         <v>384</v>
@@ -19951,7 +19961,7 @@
         <v>131</v>
       </c>
       <c r="ARX63" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="ARZ63" t="s">
         <v>385</v>
@@ -19980,7 +19990,7 @@
         <v>132</v>
       </c>
       <c r="ARX64" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="ARZ64" t="s">
         <v>386</v>
@@ -20009,7 +20019,7 @@
         <v>133</v>
       </c>
       <c r="ARX65" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="ARZ65" t="s">
         <v>387</v>
@@ -20038,7 +20048,7 @@
         <v>134</v>
       </c>
       <c r="ARX66" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="ARZ66" t="s">
         <v>388</v>
@@ -20067,7 +20077,7 @@
         <v>135</v>
       </c>
       <c r="ARX67" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="ARZ67" t="s">
         <v>389</v>
@@ -20096,7 +20106,7 @@
         <v>136</v>
       </c>
       <c r="ARX68" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="ARZ68" t="s">
         <v>390</v>
@@ -20125,7 +20135,7 @@
         <v>137</v>
       </c>
       <c r="ARX69" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="ARZ69" t="s">
         <v>391</v>
@@ -20154,7 +20164,7 @@
         <v>138</v>
       </c>
       <c r="ARX70" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="ARZ70" t="s">
         <v>392</v>
@@ -20183,7 +20193,7 @@
         <v>139</v>
       </c>
       <c r="ARX71" t="s">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c r="ARZ71" t="s">
         <v>393</v>
@@ -20212,7 +20222,7 @@
         <v>140</v>
       </c>
       <c r="ARX72" t="s">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="ARZ72" t="s">
         <v>394</v>
@@ -20241,7 +20251,7 @@
         <v>141</v>
       </c>
       <c r="ARX73" t="s">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c r="ARZ73" t="s">
         <v>395</v>
@@ -20270,7 +20280,7 @@
         <v>142</v>
       </c>
       <c r="ARX74" t="s">
-        <v>2185</v>
+        <v>2187</v>
       </c>
       <c r="ARZ74" t="s">
         <v>396</v>
@@ -20299,7 +20309,7 @@
         <v>143</v>
       </c>
       <c r="ARX75" t="s">
-        <v>2186</v>
+        <v>2188</v>
       </c>
       <c r="ARZ75" t="s">
         <v>397</v>
@@ -20328,7 +20338,7 @@
         <v>144</v>
       </c>
       <c r="ARX76" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
       <c r="ARZ76" t="s">
         <v>398</v>
@@ -20357,7 +20367,7 @@
         <v>145</v>
       </c>
       <c r="ARX77" t="s">
-        <v>2188</v>
+        <v>2190</v>
       </c>
       <c r="ARZ77" t="s">
         <v>399</v>
@@ -20386,7 +20396,7 @@
         <v>146</v>
       </c>
       <c r="ARX78" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="ARZ78" t="s">
         <v>400</v>
@@ -20415,7 +20425,7 @@
         <v>147</v>
       </c>
       <c r="ARX79" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="ARZ79" t="s">
         <v>401</v>
@@ -20444,7 +20454,7 @@
         <v>148</v>
       </c>
       <c r="ARX80" t="s">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="ARZ80" t="s">
         <v>402</v>
@@ -20473,7 +20483,7 @@
         <v>149</v>
       </c>
       <c r="ARX81" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="ARZ81" t="s">
         <v>403</v>
@@ -20502,7 +20512,7 @@
         <v>150</v>
       </c>
       <c r="ARX82" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="ARZ82" t="s">
         <v>404</v>
@@ -20531,7 +20541,7 @@
         <v>151</v>
       </c>
       <c r="ARX83" t="s">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="ARZ83" t="s">
         <v>405</v>
@@ -20560,7 +20570,7 @@
         <v>152</v>
       </c>
       <c r="ARX84" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="ARZ84" t="s">
         <v>406</v>
@@ -20589,7 +20599,7 @@
         <v>153</v>
       </c>
       <c r="ARX85" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c r="ARZ85" t="s">
         <v>407</v>
@@ -20618,7 +20628,7 @@
         <v>154</v>
       </c>
       <c r="ARX86" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="ARZ86" t="s">
         <v>408</v>
@@ -20647,7 +20657,7 @@
         <v>155</v>
       </c>
       <c r="ARX87" t="s">
-        <v>2198</v>
+        <v>2200</v>
       </c>
       <c r="ARZ87" t="s">
         <v>409</v>
@@ -20676,7 +20686,7 @@
         <v>156</v>
       </c>
       <c r="ARX88" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="ARZ88" t="s">
         <v>410</v>
@@ -20705,7 +20715,7 @@
         <v>157</v>
       </c>
       <c r="ARX89" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="ARZ89" t="s">
         <v>411</v>
@@ -20734,7 +20744,7 @@
         <v>158</v>
       </c>
       <c r="ARX90" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="ARZ90" t="s">
         <v>412</v>
@@ -20763,7 +20773,7 @@
         <v>159</v>
       </c>
       <c r="ARX91" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="ARZ91" t="s">
         <v>413</v>
@@ -20792,7 +20802,7 @@
         <v>160</v>
       </c>
       <c r="ARX92" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="ARZ92" t="s">
         <v>414</v>
@@ -20821,7 +20831,7 @@
         <v>161</v>
       </c>
       <c r="ARX93" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="ARZ93" t="s">
         <v>415</v>
@@ -20850,7 +20860,7 @@
         <v>162</v>
       </c>
       <c r="ARX94" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="ARZ94" t="s">
         <v>416</v>
@@ -20879,7 +20889,7 @@
         <v>163</v>
       </c>
       <c r="ARX95" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="ARZ95" t="s">
         <v>417</v>
@@ -20908,7 +20918,7 @@
         <v>164</v>
       </c>
       <c r="ARX96" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="ARZ96" t="s">
         <v>418</v>
@@ -20937,7 +20947,7 @@
         <v>165</v>
       </c>
       <c r="ARX97" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="ARZ97" t="s">
         <v>419</v>
@@ -20966,7 +20976,7 @@
         <v>166</v>
       </c>
       <c r="ARX98" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="ARZ98" t="s">
         <v>420</v>
@@ -20995,7 +21005,7 @@
         <v>167</v>
       </c>
       <c r="ARX99" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="ARZ99" t="s">
         <v>421</v>
@@ -21024,7 +21034,7 @@
         <v>168</v>
       </c>
       <c r="ARX100" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="ARZ100" t="s">
         <v>422</v>
@@ -21053,7 +21063,7 @@
         <v>169</v>
       </c>
       <c r="ARX101" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="ARZ101" t="s">
         <v>423</v>
@@ -21082,7 +21092,7 @@
         <v>170</v>
       </c>
       <c r="ARX102" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="ARZ102" t="s">
         <v>424</v>
@@ -21111,7 +21121,7 @@
         <v>171</v>
       </c>
       <c r="ARX103" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="ARZ103" t="s">
         <v>425</v>
@@ -21140,7 +21150,7 @@
         <v>172</v>
       </c>
       <c r="ARX104" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="ARZ104" t="s">
         <v>426</v>
@@ -21169,7 +21179,7 @@
         <v>173</v>
       </c>
       <c r="ARX105" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="ARZ105" t="s">
         <v>427</v>
@@ -21198,7 +21208,7 @@
         <v>174</v>
       </c>
       <c r="ARX106" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="ARZ106" t="s">
         <v>428</v>
@@ -21227,7 +21237,7 @@
         <v>175</v>
       </c>
       <c r="ARX107" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="ARZ107" t="s">
         <v>429</v>
@@ -21256,7 +21266,7 @@
         <v>176</v>
       </c>
       <c r="ARX108" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="ARZ108" t="s">
         <v>430</v>
@@ -21285,7 +21295,7 @@
         <v>177</v>
       </c>
       <c r="ARX109" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="ARZ109" t="s">
         <v>431</v>
@@ -21314,7 +21324,7 @@
         <v>178</v>
       </c>
       <c r="ARX110" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="ARZ110" t="s">
         <v>432</v>
@@ -21343,7 +21353,7 @@
         <v>179</v>
       </c>
       <c r="ARX111" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="ARZ111" t="s">
         <v>433</v>
@@ -21372,7 +21382,7 @@
         <v>180</v>
       </c>
       <c r="ARX112" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="ARZ112" t="s">
         <v>434</v>
@@ -21401,7 +21411,7 @@
         <v>181</v>
       </c>
       <c r="ARX113" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="ARZ113" t="s">
         <v>435</v>
@@ -21430,7 +21440,7 @@
         <v>182</v>
       </c>
       <c r="ARX114" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="ARZ114" t="s">
         <v>436</v>
@@ -21459,7 +21469,7 @@
         <v>183</v>
       </c>
       <c r="ARX115" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="ARZ115" t="s">
         <v>437</v>
@@ -21488,7 +21498,7 @@
         <v>184</v>
       </c>
       <c r="ARX116" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="ARZ116" t="s">
         <v>438</v>
@@ -21517,7 +21527,7 @@
         <v>185</v>
       </c>
       <c r="ARX117" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="ARZ117" t="s">
         <v>439</v>
@@ -21546,7 +21556,7 @@
         <v>186</v>
       </c>
       <c r="ARX118" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="ARZ118" t="s">
         <v>440</v>
@@ -21575,7 +21585,7 @@
         <v>187</v>
       </c>
       <c r="ARX119" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="ARZ119" t="s">
         <v>441</v>
@@ -21604,7 +21614,7 @@
         <v>188</v>
       </c>
       <c r="ARX120" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="ARZ120" t="s">
         <v>442</v>
@@ -21633,7 +21643,7 @@
         <v>189</v>
       </c>
       <c r="ARX121" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="ARZ121" t="s">
         <v>443</v>
@@ -21662,7 +21672,7 @@
         <v>190</v>
       </c>
       <c r="ARX122" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="ARZ122" t="s">
         <v>444</v>
@@ -21691,7 +21701,7 @@
         <v>191</v>
       </c>
       <c r="ARX123" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="ARZ123" t="s">
         <v>445</v>
@@ -21720,7 +21730,7 @@
         <v>192</v>
       </c>
       <c r="ARX124" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="ARZ124" t="s">
         <v>446</v>
@@ -21749,7 +21759,7 @@
         <v>193</v>
       </c>
       <c r="ARX125" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="ARZ125" t="s">
         <v>447</v>
@@ -21778,7 +21788,7 @@
         <v>194</v>
       </c>
       <c r="ARX126" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="ARZ126" t="s">
         <v>448</v>
@@ -21807,7 +21817,7 @@
         <v>195</v>
       </c>
       <c r="ARX127" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="ARZ127" t="s">
         <v>449</v>
@@ -21836,7 +21846,7 @@
         <v>196</v>
       </c>
       <c r="ARX128" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="ARZ128" t="s">
         <v>450</v>
@@ -21865,7 +21875,7 @@
         <v>197</v>
       </c>
       <c r="ARX129" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="ARZ129" t="s">
         <v>451</v>
@@ -21894,7 +21904,7 @@
         <v>198</v>
       </c>
       <c r="ARX130" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="ARZ130" t="s">
         <v>452</v>
@@ -21923,7 +21933,7 @@
         <v>199</v>
       </c>
       <c r="ARX131" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="ARZ131" t="s">
         <v>453</v>
@@ -21952,7 +21962,7 @@
         <v>200</v>
       </c>
       <c r="ARX132" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="ARZ132" t="s">
         <v>454</v>
@@ -21981,7 +21991,7 @@
         <v>201</v>
       </c>
       <c r="ARX133" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="ARZ133" t="s">
         <v>455</v>
@@ -22010,7 +22020,7 @@
         <v>202</v>
       </c>
       <c r="ARX134" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="ARZ134" t="s">
         <v>456</v>
@@ -22039,7 +22049,7 @@
         <v>203</v>
       </c>
       <c r="ARX135" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="ARZ135" t="s">
         <v>457</v>
@@ -22068,7 +22078,7 @@
         <v>204</v>
       </c>
       <c r="ARX136" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="ARZ136" t="s">
         <v>458</v>
@@ -22097,7 +22107,7 @@
         <v>205</v>
       </c>
       <c r="ARX137" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="ARZ137" t="s">
         <v>459</v>
@@ -22126,7 +22136,7 @@
         <v>206</v>
       </c>
       <c r="ARX138" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="ARZ138" t="s">
         <v>460</v>
@@ -22155,7 +22165,7 @@
         <v>207</v>
       </c>
       <c r="ARX139" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="ARZ139" t="s">
         <v>461</v>
@@ -22184,7 +22194,7 @@
         <v>208</v>
       </c>
       <c r="ARX140" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="ARZ140" t="s">
         <v>462</v>
@@ -22213,7 +22223,7 @@
         <v>209</v>
       </c>
       <c r="ARX141" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="ARZ141" t="s">
         <v>463</v>
@@ -22242,7 +22252,7 @@
         <v>210</v>
       </c>
       <c r="ARX142" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="ARZ142" t="s">
         <v>464</v>
@@ -22271,7 +22281,7 @@
         <v>211</v>
       </c>
       <c r="ARX143" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="ARZ143" t="s">
         <v>465</v>
@@ -22300,7 +22310,7 @@
         <v>212</v>
       </c>
       <c r="ARX144" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="ARZ144" t="s">
         <v>466</v>
@@ -22329,7 +22339,7 @@
         <v>213</v>
       </c>
       <c r="ARX145" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="ARZ145" t="s">
         <v>467</v>
@@ -22358,7 +22368,7 @@
         <v>214</v>
       </c>
       <c r="ARX146" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="ARZ146" t="s">
         <v>468</v>
@@ -22387,7 +22397,7 @@
         <v>215</v>
       </c>
       <c r="ARX147" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="ARZ147" t="s">
         <v>469</v>
@@ -22416,7 +22426,7 @@
         <v>216</v>
       </c>
       <c r="ARX148" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="ARZ148" t="s">
         <v>470</v>
@@ -22445,7 +22455,7 @@
         <v>217</v>
       </c>
       <c r="ARX149" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="ARZ149" t="s">
         <v>471</v>
@@ -22474,7 +22484,7 @@
         <v>218</v>
       </c>
       <c r="ARX150" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="ARZ150" t="s">
         <v>472</v>
@@ -22503,7 +22513,7 @@
         <v>219</v>
       </c>
       <c r="ARX151" t="s">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="ARZ151" t="s">
         <v>473</v>
@@ -22532,7 +22542,7 @@
         <v>220</v>
       </c>
       <c r="ARX152" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="ARZ152" t="s">
         <v>474</v>
@@ -22561,7 +22571,7 @@
         <v>221</v>
       </c>
       <c r="ARX153" t="s">
-        <v>2264</v>
+        <v>2266</v>
       </c>
       <c r="ARZ153" t="s">
         <v>475</v>
@@ -22590,7 +22600,7 @@
         <v>222</v>
       </c>
       <c r="ARX154" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="ARZ154" t="s">
         <v>476</v>
@@ -22619,7 +22629,7 @@
         <v>223</v>
       </c>
       <c r="ARX155" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="ARZ155" t="s">
         <v>477</v>
@@ -22648,7 +22658,7 @@
         <v>224</v>
       </c>
       <c r="ARX156" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="ARZ156" t="s">
         <v>478</v>
@@ -22677,7 +22687,7 @@
         <v>225</v>
       </c>
       <c r="ARX157" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="ARZ157" t="s">
         <v>479</v>
@@ -22706,7 +22716,7 @@
         <v>226</v>
       </c>
       <c r="ARX158" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="ARZ158" t="s">
         <v>480</v>
@@ -22735,7 +22745,7 @@
         <v>227</v>
       </c>
       <c r="ARX159" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="ARZ159" t="s">
         <v>481</v>
@@ -22764,7 +22774,7 @@
         <v>228</v>
       </c>
       <c r="ARX160" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="ARZ160" t="s">
         <v>482</v>
@@ -22793,7 +22803,7 @@
         <v>229</v>
       </c>
       <c r="ARX161" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="ARZ161" t="s">
         <v>483</v>
@@ -22822,7 +22832,7 @@
         <v>230</v>
       </c>
       <c r="ARX162" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="ARZ162" t="s">
         <v>484</v>
@@ -22851,7 +22861,7 @@
         <v>231</v>
       </c>
       <c r="ARX163" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="ARZ163" t="s">
         <v>485</v>
@@ -22880,7 +22890,7 @@
         <v>232</v>
       </c>
       <c r="ARX164" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="ARZ164" t="s">
         <v>486</v>
@@ -22909,7 +22919,7 @@
         <v>233</v>
       </c>
       <c r="ARX165" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="ARZ165" t="s">
         <v>487</v>
@@ -22938,7 +22948,7 @@
         <v>234</v>
       </c>
       <c r="ARX166" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="ARZ166" t="s">
         <v>488</v>
@@ -22967,7 +22977,7 @@
         <v>235</v>
       </c>
       <c r="ARX167" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="ARZ167" t="s">
         <v>489</v>
@@ -22996,7 +23006,7 @@
         <v>236</v>
       </c>
       <c r="ARX168" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="ARZ168" t="s">
         <v>490</v>
@@ -23025,7 +23035,7 @@
         <v>237</v>
       </c>
       <c r="ARX169" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="ARZ169" t="s">
         <v>491</v>
@@ -23054,7 +23064,7 @@
         <v>238</v>
       </c>
       <c r="ARX170" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="ARZ170" t="s">
         <v>492</v>
@@ -23083,7 +23093,7 @@
         <v>239</v>
       </c>
       <c r="ARX171" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="ARZ171" t="s">
         <v>493</v>
@@ -23112,7 +23122,7 @@
         <v>240</v>
       </c>
       <c r="ARX172" t="s">
-        <v>2283</v>
+        <v>2285</v>
       </c>
       <c r="ARZ172" t="s">
         <v>494</v>
@@ -23141,7 +23151,7 @@
         <v>241</v>
       </c>
       <c r="ARX173" t="s">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c r="ARZ173" t="s">
         <v>495</v>
@@ -23170,7 +23180,7 @@
         <v>242</v>
       </c>
       <c r="ARX174" t="s">
-        <v>2285</v>
+        <v>2287</v>
       </c>
       <c r="ARZ174" t="s">
         <v>496</v>
@@ -23199,7 +23209,7 @@
         <v>243</v>
       </c>
       <c r="ARX175" t="s">
-        <v>2286</v>
+        <v>2288</v>
       </c>
       <c r="ARZ175" t="s">
         <v>497</v>
@@ -23228,7 +23238,7 @@
         <v>244</v>
       </c>
       <c r="ARX176" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="ARZ176" t="s">
         <v>498</v>
@@ -23257,7 +23267,7 @@
         <v>245</v>
       </c>
       <c r="ARX177" t="s">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="ARZ177" t="s">
         <v>499</v>
@@ -23286,7 +23296,7 @@
         <v>246</v>
       </c>
       <c r="ARX178" t="s">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c r="ARZ178" t="s">
         <v>500</v>
@@ -23315,7 +23325,7 @@
         <v>247</v>
       </c>
       <c r="ARX179" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="ARZ179" t="s">
         <v>501</v>
@@ -23344,7 +23354,7 @@
         <v>248</v>
       </c>
       <c r="ARX180" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="ARZ180" t="s">
         <v>502</v>
@@ -23373,7 +23383,7 @@
         <v>249</v>
       </c>
       <c r="ARX181" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="ARZ181" t="s">
         <v>503</v>
@@ -23402,7 +23412,7 @@
         <v>250</v>
       </c>
       <c r="ARX182" t="s">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c r="ARZ182" t="s">
         <v>504</v>
@@ -23431,7 +23441,7 @@
         <v>251</v>
       </c>
       <c r="ARX183" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
       <c r="ARZ183" t="s">
         <v>505</v>
@@ -23460,7 +23470,7 @@
         <v>252</v>
       </c>
       <c r="ARX184" t="s">
-        <v>2295</v>
+        <v>2297</v>
       </c>
       <c r="ARZ184" t="s">
         <v>506</v>
@@ -23486,7 +23496,7 @@
         <v>253</v>
       </c>
       <c r="ARX185" t="s">
-        <v>2296</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="186" spans="1132:1170" x14ac:dyDescent="0.25">
@@ -28557,9 +28567,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -28632,10 +28642,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="63" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="52" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="63" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -28675,7 +28685,7 @@
         <v>2088</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28683,10 +28693,10 @@
         <v>2087</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1860</v>
+        <v>2089</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>514</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -28727,9 +28737,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="20" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="20" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
@@ -30699,9 +30709,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="12" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
@@ -31623,11 +31633,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="24" customWidth="1"/>
-    <col min="4" max="6" width="20.5703125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="24" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -31760,20 +31770,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="23" customWidth="1"/>
-    <col min="3" max="5" width="20.5703125" style="24" customWidth="1"/>
-    <col min="6" max="8" width="20.5703125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="16" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="15" customWidth="1"/>
-    <col min="12" max="13" width="20.5703125" style="16" customWidth="1"/>
-    <col min="14" max="15" width="20.5703125" style="14" customWidth="1"/>
-    <col min="16" max="18" width="20.5703125" style="16" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" style="27" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" style="25" customWidth="1"/>
-    <col min="21" max="21" width="20.5703125" style="16" customWidth="1"/>
-    <col min="22" max="22" width="20.5703125" style="52" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="23" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" style="24" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="25" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="16" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="15" customWidth="1"/>
+    <col min="12" max="13" width="20.7109375" style="16" customWidth="1"/>
+    <col min="14" max="15" width="20.7109375" style="14" customWidth="1"/>
+    <col min="16" max="18" width="20.7109375" style="16" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="27" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="25" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="16" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.25">
